--- a/vehicle_data.xlsx
+++ b/vehicle_data.xlsx
@@ -45,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,11 +60,17 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -73,11 +79,82 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -24843,29 +24920,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>fin</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>production_date</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>sales_code_array</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -24888,7 +24965,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -24911,7 +24988,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -24934,7 +25011,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -24957,7 +25034,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -24980,7 +25057,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -25003,7 +25080,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -25026,7 +25103,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -25049,7 +25126,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -25072,7 +25149,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -25095,7 +25172,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -25118,7 +25195,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -25141,7 +25218,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="6" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -25164,7 +25241,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="6" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -25187,7 +25264,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -25210,7 +25287,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="6" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -25233,7 +25310,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="6" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -25256,7 +25333,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -25279,7 +25356,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="6" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -25302,7 +25379,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="6" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -25325,7 +25402,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="6" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -25348,7 +25425,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="6" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -25371,7 +25448,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="6" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -25394,7 +25471,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="6" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -25417,7 +25494,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="6" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -25440,7 +25517,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="6" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -25463,7 +25540,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="6" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -25486,7 +25563,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="6" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -25509,7 +25586,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="6" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -25532,7 +25609,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="6" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -25555,7 +25632,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="6" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -25578,7 +25655,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="6" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -25601,7 +25678,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="6" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -25624,7 +25701,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="6" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -25647,7 +25724,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="6" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -25670,7 +25747,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="6" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -25693,7 +25770,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="6" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -25716,7 +25793,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="6" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -25739,7 +25816,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="6" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -25762,7 +25839,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="6" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -25785,7 +25862,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="6" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -25808,7 +25885,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="6" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -25831,7 +25908,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -25854,7 +25931,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="6" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -25877,7 +25954,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="6" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -25900,7 +25977,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="6" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -25923,7 +26000,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="6" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -25946,7 +26023,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="6" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -25969,7 +26046,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="6" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -25992,7 +26069,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="6" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -26015,7 +26092,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="6" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -26038,7 +26115,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="6" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -26061,7 +26138,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="6" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -26084,7 +26161,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="6" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -26107,7 +26184,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="6" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -26130,7 +26207,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="6" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -26153,7 +26230,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="6" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -26176,7 +26253,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="6" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -26199,7 +26276,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="6" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -26222,7 +26299,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="6" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -26245,7 +26322,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="6" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -26268,7 +26345,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="6" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -26291,7 +26368,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="6" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -26314,7 +26391,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="6" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -26337,7 +26414,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="6" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -26360,7 +26437,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="6" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -26383,7 +26460,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="6" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -26406,7 +26483,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="6" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -26429,7 +26506,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="6" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -26452,7 +26529,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="6" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -26475,7 +26552,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="6" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -26498,7 +26575,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="6" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -26521,7 +26598,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="6" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -26544,7 +26621,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="6" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -26567,7 +26644,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="6" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -26590,7 +26667,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="6" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -26613,7 +26690,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="6" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -26636,7 +26713,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="6" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -26659,7 +26736,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="6" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -26682,7 +26759,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="6" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -26705,7 +26782,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="6" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -26728,7 +26805,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="6" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -26751,7 +26828,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="6" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -26774,7 +26851,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="6" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -26797,7 +26874,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="6" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -26820,7 +26897,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="6" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -26843,7 +26920,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="6" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -26866,7 +26943,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="6" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -26889,7 +26966,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="6" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -26912,7 +26989,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="6" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -26935,7 +27012,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="6" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -26958,7 +27035,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="6" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -26981,7 +27058,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="6" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -27004,7 +27081,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="6" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -27027,7 +27104,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="6" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -27050,7 +27127,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="6" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -27073,7 +27150,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="6" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -27096,7 +27173,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="6" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -27119,7 +27196,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="6" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -27142,7 +27219,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="6" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -27165,7 +27242,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="6" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -27188,7 +27265,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="6" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -27211,7 +27288,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="6" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -27234,7 +27311,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="6" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -27257,7 +27334,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="6" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -27280,7 +27357,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="6" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -27303,7 +27380,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="6" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -27326,7 +27403,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="6" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -27349,7 +27426,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="6" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -27372,7 +27449,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="6" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -27395,7 +27472,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="6" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -27418,7 +27495,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="6" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -27441,7 +27518,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="6" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -27464,7 +27541,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="6" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -27487,7 +27564,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n">
+      <c r="A116" s="6" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -27510,7 +27587,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n">
+      <c r="A117" s="6" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -27533,7 +27610,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n">
+      <c r="A118" s="6" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -27556,7 +27633,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n">
+      <c r="A119" s="6" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -27579,7 +27656,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n">
+      <c r="A120" s="6" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -27602,7 +27679,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n">
+      <c r="A121" s="6" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -27625,7 +27702,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n">
+      <c r="A122" s="6" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -27648,7 +27725,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n">
+      <c r="A123" s="6" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -27671,7 +27748,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n">
+      <c r="A124" s="6" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -27694,7 +27771,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n">
+      <c r="A125" s="6" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -27717,7 +27794,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n">
+      <c r="A126" s="6" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -27740,7 +27817,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n">
+      <c r="A127" s="6" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -27763,7 +27840,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n">
+      <c r="A128" s="6" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -27786,7 +27863,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n">
+      <c r="A129" s="6" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -27809,7 +27886,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n">
+      <c r="A130" s="6" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -27832,7 +27909,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n">
+      <c r="A131" s="6" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -27855,7 +27932,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n">
+      <c r="A132" s="6" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -27878,7 +27955,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n">
+      <c r="A133" s="6" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -27901,7 +27978,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n">
+      <c r="A134" s="6" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -27924,7 +28001,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n">
+      <c r="A135" s="6" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -27947,7 +28024,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n">
+      <c r="A136" s="6" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -27970,7 +28047,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n">
+      <c r="A137" s="6" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -27993,7 +28070,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n">
+      <c r="A138" s="6" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -28016,7 +28093,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="n">
+      <c r="A139" s="6" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -28039,7 +28116,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="n">
+      <c r="A140" s="6" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -28062,7 +28139,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="n">
+      <c r="A141" s="6" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -28085,7 +28162,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="n">
+      <c r="A142" s="6" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -28108,7 +28185,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="n">
+      <c r="A143" s="6" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -28131,7 +28208,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="n">
+      <c r="A144" s="6" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -28154,7 +28231,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="n">
+      <c r="A145" s="6" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -28177,7 +28254,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="n">
+      <c r="A146" s="6" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -28200,7 +28277,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="n">
+      <c r="A147" s="6" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -28223,7 +28300,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="n">
+      <c r="A148" s="6" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -28246,7 +28323,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="n">
+      <c r="A149" s="6" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -28269,7 +28346,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="n">
+      <c r="A150" s="6" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -28292,7 +28369,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="n">
+      <c r="A151" s="6" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -28315,7 +28392,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="n">
+      <c r="A152" s="6" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -28338,7 +28415,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="n">
+      <c r="A153" s="6" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -28361,7 +28438,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="n">
+      <c r="A154" s="6" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -28384,7 +28461,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="n">
+      <c r="A155" s="6" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -28407,7 +28484,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="n">
+      <c r="A156" s="6" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -28430,7 +28507,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="n">
+      <c r="A157" s="6" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -28453,7 +28530,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="n">
+      <c r="A158" s="6" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -28476,7 +28553,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="n">
+      <c r="A159" s="6" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -28499,7 +28576,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="n">
+      <c r="A160" s="6" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -28522,7 +28599,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="n">
+      <c r="A161" s="6" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -28545,7 +28622,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="n">
+      <c r="A162" s="6" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -28568,7 +28645,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="n">
+      <c r="A163" s="6" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -28591,7 +28668,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="n">
+      <c r="A164" s="6" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -28614,7 +28691,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="n">
+      <c r="A165" s="6" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
@@ -28637,7 +28714,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="n">
+      <c r="A166" s="6" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
@@ -28660,7 +28737,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="n">
+      <c r="A167" s="6" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
@@ -28683,7 +28760,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="n">
+      <c r="A168" s="6" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
@@ -28706,7 +28783,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="n">
+      <c r="A169" s="6" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
@@ -28729,7 +28806,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="n">
+      <c r="A170" s="6" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
@@ -28752,7 +28829,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="n">
+      <c r="A171" s="6" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
@@ -28775,7 +28852,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="n">
+      <c r="A172" s="6" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
@@ -28798,7 +28875,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="n">
+      <c r="A173" s="6" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
@@ -28821,7 +28898,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="n">
+      <c r="A174" s="6" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
@@ -28844,7 +28921,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="n">
+      <c r="A175" s="6" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
@@ -28867,7 +28944,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="n">
+      <c r="A176" s="6" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
@@ -28890,7 +28967,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="n">
+      <c r="A177" s="6" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
@@ -28913,7 +28990,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="n">
+      <c r="A178" s="6" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
@@ -28936,7 +29013,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="n">
+      <c r="A179" s="6" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
@@ -28959,7 +29036,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="n">
+      <c r="A180" s="6" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
@@ -28982,7 +29059,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="n">
+      <c r="A181" s="6" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
@@ -29005,7 +29082,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="n">
+      <c r="A182" s="6" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
@@ -29028,7 +29105,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="n">
+      <c r="A183" s="6" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
@@ -29051,7 +29128,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="n">
+      <c r="A184" s="6" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
@@ -29074,7 +29151,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="n">
+      <c r="A185" s="6" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
@@ -29097,7 +29174,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="n">
+      <c r="A186" s="6" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
@@ -29120,7 +29197,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="n">
+      <c r="A187" s="6" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
@@ -29143,7 +29220,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="n">
+      <c r="A188" s="6" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
@@ -29166,7 +29243,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="n">
+      <c r="A189" s="6" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
@@ -29189,7 +29266,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="n">
+      <c r="A190" s="6" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
@@ -29212,7 +29289,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="n">
+      <c r="A191" s="6" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
@@ -29235,7 +29312,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="n">
+      <c r="A192" s="6" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
@@ -29258,7 +29335,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="n">
+      <c r="A193" s="6" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
@@ -29281,7 +29358,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="n">
+      <c r="A194" s="6" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
@@ -29304,7 +29381,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="n">
+      <c r="A195" s="6" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
@@ -29327,7 +29404,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="n">
+      <c r="A196" s="6" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
@@ -29350,7 +29427,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="n">
+      <c r="A197" s="6" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
@@ -29373,7 +29450,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="n">
+      <c r="A198" s="6" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
@@ -29396,7 +29473,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="n">
+      <c r="A199" s="6" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
@@ -29419,7 +29496,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="n">
+      <c r="A200" s="6" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
@@ -29442,7 +29519,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="n">
+      <c r="A201" s="6" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
@@ -29465,7 +29542,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="n">
+      <c r="A202" s="6" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
@@ -29488,7 +29565,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="n">
+      <c r="A203" s="6" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
@@ -29511,7 +29588,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="n">
+      <c r="A204" s="6" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
@@ -29534,7 +29611,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="n">
+      <c r="A205" s="6" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
@@ -29557,7 +29634,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="n">
+      <c r="A206" s="6" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
@@ -29580,7 +29657,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="n">
+      <c r="A207" s="6" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
@@ -29603,7 +29680,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="n">
+      <c r="A208" s="6" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
@@ -29626,7 +29703,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="n">
+      <c r="A209" s="6" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
@@ -29649,7 +29726,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="n">
+      <c r="A210" s="6" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
@@ -29672,7 +29749,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="n">
+      <c r="A211" s="6" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
@@ -29695,7 +29772,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="n">
+      <c r="A212" s="6" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
@@ -29718,7 +29795,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="n">
+      <c r="A213" s="6" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
@@ -29741,7 +29818,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="n">
+      <c r="A214" s="6" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
@@ -29764,7 +29841,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="n">
+      <c r="A215" s="6" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
@@ -29787,7 +29864,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="n">
+      <c r="A216" s="6" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
@@ -29810,7 +29887,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="n">
+      <c r="A217" s="6" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
@@ -29833,7 +29910,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="n">
+      <c r="A218" s="6" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
@@ -29856,7 +29933,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="n">
+      <c r="A219" s="6" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
@@ -29879,7 +29956,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="n">
+      <c r="A220" s="6" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
@@ -29902,7 +29979,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="n">
+      <c r="A221" s="6" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
@@ -29925,7 +30002,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="n">
+      <c r="A222" s="6" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
@@ -29948,7 +30025,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="n">
+      <c r="A223" s="6" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
@@ -29971,7 +30048,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="n">
+      <c r="A224" s="6" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
@@ -29994,7 +30071,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="n">
+      <c r="A225" s="6" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
@@ -30017,7 +30094,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="n">
+      <c r="A226" s="6" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
@@ -30040,7 +30117,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="n">
+      <c r="A227" s="6" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
@@ -30063,7 +30140,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="n">
+      <c r="A228" s="6" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
@@ -30086,7 +30163,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="n">
+      <c r="A229" s="6" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
@@ -30109,7 +30186,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="n">
+      <c r="A230" s="6" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
@@ -30132,7 +30209,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="n">
+      <c r="A231" s="6" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
@@ -30155,7 +30232,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="n">
+      <c r="A232" s="6" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
@@ -30178,7 +30255,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="n">
+      <c r="A233" s="6" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
@@ -30201,7 +30278,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="n">
+      <c r="A234" s="6" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
@@ -30224,7 +30301,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="n">
+      <c r="A235" s="6" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
@@ -30247,7 +30324,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="n">
+      <c r="A236" s="6" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
@@ -30270,7 +30347,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="n">
+      <c r="A237" s="6" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
@@ -30293,7 +30370,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="n">
+      <c r="A238" s="6" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
@@ -30316,7 +30393,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="n">
+      <c r="A239" s="6" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
@@ -30339,7 +30416,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="n">
+      <c r="A240" s="6" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
@@ -30362,7 +30439,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="n">
+      <c r="A241" s="6" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
@@ -30385,7 +30462,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="n">
+      <c r="A242" s="6" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
@@ -30408,7 +30485,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="n">
+      <c r="A243" s="6" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
@@ -30431,7 +30508,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="n">
+      <c r="A244" s="6" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
@@ -30454,7 +30531,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="n">
+      <c r="A245" s="6" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
@@ -30477,7 +30554,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="n">
+      <c r="A246" s="6" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
@@ -30500,7 +30577,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="n">
+      <c r="A247" s="6" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
@@ -30523,7 +30600,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="n">
+      <c r="A248" s="6" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
@@ -30546,7 +30623,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="n">
+      <c r="A249" s="6" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
@@ -30569,7 +30646,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="n">
+      <c r="A250" s="6" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
@@ -30592,7 +30669,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="n">
+      <c r="A251" s="6" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
@@ -30615,7 +30692,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="n">
+      <c r="A252" s="6" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
@@ -30638,7 +30715,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="n">
+      <c r="A253" s="6" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
@@ -30661,7 +30738,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="n">
+      <c r="A254" s="6" t="n">
         <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
@@ -30684,7 +30761,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="n">
+      <c r="A255" s="6" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
@@ -30707,7 +30784,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="n">
+      <c r="A256" s="6" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
@@ -30730,7 +30807,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="n">
+      <c r="A257" s="6" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
@@ -30753,7 +30830,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="n">
+      <c r="A258" s="6" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
@@ -30776,7 +30853,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="n">
+      <c r="A259" s="6" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
@@ -30799,7 +30876,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="n">
+      <c r="A260" s="6" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
@@ -30822,7 +30899,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="n">
+      <c r="A261" s="6" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
@@ -30845,7 +30922,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="n">
+      <c r="A262" s="6" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
@@ -30868,7 +30945,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="n">
+      <c r="A263" s="6" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
@@ -30891,7 +30968,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="n">
+      <c r="A264" s="6" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
@@ -30914,7 +30991,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="n">
+      <c r="A265" s="6" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
@@ -30937,7 +31014,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="n">
+      <c r="A266" s="6" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
@@ -30960,7 +31037,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="n">
+      <c r="A267" s="6" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="inlineStr">
@@ -30983,7 +31060,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="n">
+      <c r="A268" s="6" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="inlineStr">
@@ -31006,7 +31083,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="n">
+      <c r="A269" s="6" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="inlineStr">
@@ -31029,7 +31106,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="n">
+      <c r="A270" s="6" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="inlineStr">
@@ -31052,7 +31129,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="n">
+      <c r="A271" s="6" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="inlineStr">
@@ -31075,7 +31152,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="n">
+      <c r="A272" s="6" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="inlineStr">
@@ -31098,7 +31175,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="n">
+      <c r="A273" s="6" t="n">
         <v>271</v>
       </c>
       <c r="B273" t="inlineStr">
@@ -31121,7 +31198,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="n">
+      <c r="A274" s="6" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="inlineStr">
@@ -31144,7 +31221,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="n">
+      <c r="A275" s="6" t="n">
         <v>273</v>
       </c>
       <c r="B275" t="inlineStr">
@@ -31167,7 +31244,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="n">
+      <c r="A276" s="6" t="n">
         <v>274</v>
       </c>
       <c r="B276" t="inlineStr">
@@ -31190,7 +31267,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="n">
+      <c r="A277" s="6" t="n">
         <v>275</v>
       </c>
       <c r="B277" t="inlineStr">
@@ -31213,7 +31290,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="n">
+      <c r="A278" s="6" t="n">
         <v>276</v>
       </c>
       <c r="B278" t="inlineStr">
@@ -31236,7 +31313,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="n">
+      <c r="A279" s="6" t="n">
         <v>277</v>
       </c>
       <c r="B279" t="inlineStr">
@@ -31259,7 +31336,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="n">
+      <c r="A280" s="6" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="inlineStr">
@@ -31282,7 +31359,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="n">
+      <c r="A281" s="6" t="n">
         <v>279</v>
       </c>
       <c r="B281" t="inlineStr">
@@ -31305,7 +31382,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="n">
+      <c r="A282" s="6" t="n">
         <v>280</v>
       </c>
       <c r="B282" t="inlineStr">
@@ -31328,7 +31405,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="n">
+      <c r="A283" s="6" t="n">
         <v>281</v>
       </c>
       <c r="B283" t="inlineStr">
@@ -31351,7 +31428,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="n">
+      <c r="A284" s="6" t="n">
         <v>282</v>
       </c>
       <c r="B284" t="inlineStr">
@@ -31374,7 +31451,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="n">
+      <c r="A285" s="6" t="n">
         <v>283</v>
       </c>
       <c r="B285" t="inlineStr">
@@ -31397,7 +31474,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="n">
+      <c r="A286" s="6" t="n">
         <v>284</v>
       </c>
       <c r="B286" t="inlineStr">
@@ -31420,7 +31497,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="n">
+      <c r="A287" s="6" t="n">
         <v>285</v>
       </c>
       <c r="B287" t="inlineStr">
@@ -31443,7 +31520,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="n">
+      <c r="A288" s="6" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="inlineStr">
@@ -31466,7 +31543,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="n">
+      <c r="A289" s="6" t="n">
         <v>287</v>
       </c>
       <c r="B289" t="inlineStr">
@@ -31489,7 +31566,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="n">
+      <c r="A290" s="6" t="n">
         <v>288</v>
       </c>
       <c r="B290" t="inlineStr">
@@ -31512,7 +31589,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="n">
+      <c r="A291" s="6" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="inlineStr">
@@ -31535,7 +31612,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="n">
+      <c r="A292" s="6" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="inlineStr">
@@ -31558,7 +31635,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="n">
+      <c r="A293" s="6" t="n">
         <v>291</v>
       </c>
       <c r="B293" t="inlineStr">
@@ -31581,7 +31658,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="n">
+      <c r="A294" s="6" t="n">
         <v>292</v>
       </c>
       <c r="B294" t="inlineStr">
@@ -31604,7 +31681,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="n">
+      <c r="A295" s="6" t="n">
         <v>293</v>
       </c>
       <c r="B295" t="inlineStr">
@@ -31627,7 +31704,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="n">
+      <c r="A296" s="6" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="inlineStr">
@@ -31650,7 +31727,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="n">
+      <c r="A297" s="6" t="n">
         <v>295</v>
       </c>
       <c r="B297" t="inlineStr">
@@ -31673,7 +31750,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="n">
+      <c r="A298" s="6" t="n">
         <v>296</v>
       </c>
       <c r="B298" t="inlineStr">
@@ -31696,7 +31773,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="n">
+      <c r="A299" s="6" t="n">
         <v>297</v>
       </c>
       <c r="B299" t="inlineStr">
@@ -31719,7 +31796,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3" t="n">
+      <c r="A300" s="6" t="n">
         <v>298</v>
       </c>
       <c r="B300" t="inlineStr">
@@ -31742,7 +31819,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3" t="n">
+      <c r="A301" s="6" t="n">
         <v>299</v>
       </c>
       <c r="B301" t="inlineStr">
@@ -31765,7 +31842,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3" t="n">
+      <c r="A302" s="6" t="n">
         <v>300</v>
       </c>
       <c r="B302" t="inlineStr">
@@ -31788,7 +31865,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3" t="n">
+      <c r="A303" s="6" t="n">
         <v>301</v>
       </c>
       <c r="B303" t="inlineStr">
@@ -31811,7 +31888,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="n">
+      <c r="A304" s="6" t="n">
         <v>302</v>
       </c>
       <c r="B304" t="inlineStr">
@@ -31834,7 +31911,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3" t="n">
+      <c r="A305" s="6" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="inlineStr">
@@ -31857,7 +31934,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3" t="n">
+      <c r="A306" s="6" t="n">
         <v>304</v>
       </c>
       <c r="B306" t="inlineStr">
@@ -31880,7 +31957,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="n">
+      <c r="A307" s="6" t="n">
         <v>305</v>
       </c>
       <c r="B307" t="inlineStr">
@@ -31903,7 +31980,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="n">
+      <c r="A308" s="6" t="n">
         <v>306</v>
       </c>
       <c r="B308" t="inlineStr">
@@ -31926,7 +32003,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3" t="n">
+      <c r="A309" s="6" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="inlineStr">
@@ -31949,7 +32026,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="n">
+      <c r="A310" s="6" t="n">
         <v>308</v>
       </c>
       <c r="B310" t="inlineStr">
@@ -31972,7 +32049,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3" t="n">
+      <c r="A311" s="6" t="n">
         <v>309</v>
       </c>
       <c r="B311" t="inlineStr">
@@ -31995,7 +32072,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3" t="n">
+      <c r="A312" s="6" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="inlineStr">
@@ -32018,7 +32095,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3" t="n">
+      <c r="A313" s="6" t="n">
         <v>311</v>
       </c>
       <c r="B313" t="inlineStr">
@@ -32041,7 +32118,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3" t="n">
+      <c r="A314" s="6" t="n">
         <v>312</v>
       </c>
       <c r="B314" t="inlineStr">
@@ -32064,7 +32141,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3" t="n">
+      <c r="A315" s="6" t="n">
         <v>313</v>
       </c>
       <c r="B315" t="inlineStr">
@@ -32087,7 +32164,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3" t="n">
+      <c r="A316" s="6" t="n">
         <v>314</v>
       </c>
       <c r="B316" t="inlineStr">
@@ -32110,7 +32187,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3" t="n">
+      <c r="A317" s="6" t="n">
         <v>315</v>
       </c>
       <c r="B317" t="inlineStr">
@@ -32133,7 +32210,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3" t="n">
+      <c r="A318" s="6" t="n">
         <v>316</v>
       </c>
       <c r="B318" t="inlineStr">
@@ -32156,7 +32233,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="n">
+      <c r="A319" s="6" t="n">
         <v>317</v>
       </c>
       <c r="B319" t="inlineStr">
@@ -32179,7 +32256,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3" t="n">
+      <c r="A320" s="6" t="n">
         <v>318</v>
       </c>
       <c r="B320" t="inlineStr">
@@ -32202,7 +32279,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3" t="n">
+      <c r="A321" s="6" t="n">
         <v>319</v>
       </c>
       <c r="B321" t="inlineStr">
@@ -32225,7 +32302,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3" t="n">
+      <c r="A322" s="6" t="n">
         <v>320</v>
       </c>
       <c r="B322" t="inlineStr">
@@ -32248,7 +32325,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3" t="n">
+      <c r="A323" s="6" t="n">
         <v>321</v>
       </c>
       <c r="B323" t="inlineStr">
@@ -32271,7 +32348,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3" t="n">
+      <c r="A324" s="6" t="n">
         <v>322</v>
       </c>
       <c r="B324" t="inlineStr">
@@ -32294,7 +32371,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3" t="n">
+      <c r="A325" s="6" t="n">
         <v>323</v>
       </c>
       <c r="B325" t="inlineStr">
@@ -32317,7 +32394,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="n">
+      <c r="A326" s="6" t="n">
         <v>324</v>
       </c>
       <c r="B326" t="inlineStr">
@@ -32340,7 +32417,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3" t="n">
+      <c r="A327" s="6" t="n">
         <v>325</v>
       </c>
       <c r="B327" t="inlineStr">
@@ -32363,7 +32440,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3" t="n">
+      <c r="A328" s="6" t="n">
         <v>326</v>
       </c>
       <c r="B328" t="inlineStr">
@@ -32386,7 +32463,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3" t="n">
+      <c r="A329" s="6" t="n">
         <v>327</v>
       </c>
       <c r="B329" t="inlineStr">
@@ -32409,7 +32486,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="n">
+      <c r="A330" s="6" t="n">
         <v>328</v>
       </c>
       <c r="B330" t="inlineStr">
@@ -32432,7 +32509,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3" t="n">
+      <c r="A331" s="6" t="n">
         <v>329</v>
       </c>
       <c r="B331" t="inlineStr">
@@ -32455,7 +32532,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3" t="n">
+      <c r="A332" s="6" t="n">
         <v>330</v>
       </c>
       <c r="B332" t="inlineStr">
@@ -32478,7 +32555,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3" t="n">
+      <c r="A333" s="6" t="n">
         <v>331</v>
       </c>
       <c r="B333" t="inlineStr">
@@ -32501,7 +32578,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="n">
+      <c r="A334" s="6" t="n">
         <v>332</v>
       </c>
       <c r="B334" t="inlineStr">
@@ -32524,7 +32601,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3" t="n">
+      <c r="A335" s="6" t="n">
         <v>333</v>
       </c>
       <c r="B335" t="inlineStr">
@@ -32547,7 +32624,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3" t="n">
+      <c r="A336" s="6" t="n">
         <v>334</v>
       </c>
       <c r="B336" t="inlineStr">
@@ -32570,7 +32647,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3" t="n">
+      <c r="A337" s="6" t="n">
         <v>335</v>
       </c>
       <c r="B337" t="inlineStr">
@@ -32593,7 +32670,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3" t="n">
+      <c r="A338" s="6" t="n">
         <v>336</v>
       </c>
       <c r="B338" t="inlineStr">
@@ -32616,7 +32693,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="n">
+      <c r="A339" s="6" t="n">
         <v>337</v>
       </c>
       <c r="B339" t="inlineStr">
@@ -32639,7 +32716,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3" t="n">
+      <c r="A340" s="6" t="n">
         <v>338</v>
       </c>
       <c r="B340" t="inlineStr">
@@ -32662,7 +32739,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="n">
+      <c r="A341" s="6" t="n">
         <v>339</v>
       </c>
       <c r="B341" t="inlineStr">
@@ -32685,7 +32762,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3" t="n">
+      <c r="A342" s="6" t="n">
         <v>340</v>
       </c>
       <c r="B342" t="inlineStr">
@@ -32708,7 +32785,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3" t="n">
+      <c r="A343" s="6" t="n">
         <v>341</v>
       </c>
       <c r="B343" t="inlineStr">
@@ -32731,7 +32808,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3" t="n">
+      <c r="A344" s="6" t="n">
         <v>342</v>
       </c>
       <c r="B344" t="inlineStr">
@@ -32754,7 +32831,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3" t="n">
+      <c r="A345" s="6" t="n">
         <v>343</v>
       </c>
       <c r="B345" t="inlineStr">
@@ -32777,7 +32854,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3" t="n">
+      <c r="A346" s="6" t="n">
         <v>344</v>
       </c>
       <c r="B346" t="inlineStr">
@@ -32800,7 +32877,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3" t="n">
+      <c r="A347" s="6" t="n">
         <v>345</v>
       </c>
       <c r="B347" t="inlineStr">
@@ -32823,7 +32900,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3" t="n">
+      <c r="A348" s="6" t="n">
         <v>346</v>
       </c>
       <c r="B348" t="inlineStr">
@@ -32846,7 +32923,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3" t="n">
+      <c r="A349" s="6" t="n">
         <v>347</v>
       </c>
       <c r="B349" t="inlineStr">
@@ -32869,7 +32946,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3" t="n">
+      <c r="A350" s="6" t="n">
         <v>348</v>
       </c>
       <c r="B350" t="inlineStr">
@@ -32892,7 +32969,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3" t="n">
+      <c r="A351" s="6" t="n">
         <v>349</v>
       </c>
       <c r="B351" t="inlineStr">
@@ -32915,7 +32992,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3" t="n">
+      <c r="A352" s="6" t="n">
         <v>350</v>
       </c>
       <c r="B352" t="inlineStr">
@@ -32938,7 +33015,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3" t="n">
+      <c r="A353" s="6" t="n">
         <v>351</v>
       </c>
       <c r="B353" t="inlineStr">
@@ -32961,7 +33038,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3" t="n">
+      <c r="A354" s="6" t="n">
         <v>352</v>
       </c>
       <c r="B354" t="inlineStr">
@@ -32984,7 +33061,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3" t="n">
+      <c r="A355" s="6" t="n">
         <v>353</v>
       </c>
       <c r="B355" t="inlineStr">
@@ -33007,7 +33084,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3" t="n">
+      <c r="A356" s="6" t="n">
         <v>354</v>
       </c>
       <c r="B356" t="inlineStr">
@@ -33030,7 +33107,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3" t="n">
+      <c r="A357" s="6" t="n">
         <v>355</v>
       </c>
       <c r="B357" t="inlineStr">
@@ -33053,7 +33130,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3" t="n">
+      <c r="A358" s="6" t="n">
         <v>356</v>
       </c>
       <c r="B358" t="inlineStr">
@@ -33076,7 +33153,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3" t="n">
+      <c r="A359" s="6" t="n">
         <v>357</v>
       </c>
       <c r="B359" t="inlineStr">
@@ -33099,7 +33176,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3" t="n">
+      <c r="A360" s="6" t="n">
         <v>358</v>
       </c>
       <c r="B360" t="inlineStr">
@@ -33122,7 +33199,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3" t="n">
+      <c r="A361" s="6" t="n">
         <v>359</v>
       </c>
       <c r="B361" t="inlineStr">
@@ -33145,7 +33222,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="3" t="n">
+      <c r="A362" s="6" t="n">
         <v>360</v>
       </c>
       <c r="B362" t="inlineStr">
@@ -33168,7 +33245,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="3" t="n">
+      <c r="A363" s="6" t="n">
         <v>361</v>
       </c>
       <c r="B363" t="inlineStr">
@@ -33191,7 +33268,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="3" t="n">
+      <c r="A364" s="6" t="n">
         <v>362</v>
       </c>
       <c r="B364" t="inlineStr">
@@ -33214,7 +33291,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3" t="n">
+      <c r="A365" s="6" t="n">
         <v>363</v>
       </c>
       <c r="B365" t="inlineStr">
@@ -33237,7 +33314,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="3" t="n">
+      <c r="A366" s="6" t="n">
         <v>364</v>
       </c>
       <c r="B366" t="inlineStr">
@@ -33260,7 +33337,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3" t="n">
+      <c r="A367" s="6" t="n">
         <v>365</v>
       </c>
       <c r="B367" t="inlineStr">
@@ -33283,7 +33360,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="3" t="n">
+      <c r="A368" s="6" t="n">
         <v>366</v>
       </c>
       <c r="B368" t="inlineStr">
@@ -33306,7 +33383,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="3" t="n">
+      <c r="A369" s="6" t="n">
         <v>367</v>
       </c>
       <c r="B369" t="inlineStr">
@@ -33329,7 +33406,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="3" t="n">
+      <c r="A370" s="6" t="n">
         <v>368</v>
       </c>
       <c r="B370" t="inlineStr">
@@ -33352,7 +33429,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="3" t="n">
+      <c r="A371" s="6" t="n">
         <v>369</v>
       </c>
       <c r="B371" t="inlineStr">
@@ -33375,7 +33452,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3" t="n">
+      <c r="A372" s="6" t="n">
         <v>370</v>
       </c>
       <c r="B372" t="inlineStr">
@@ -33398,7 +33475,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3" t="n">
+      <c r="A373" s="6" t="n">
         <v>371</v>
       </c>
       <c r="B373" t="inlineStr">
@@ -33421,7 +33498,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3" t="n">
+      <c r="A374" s="6" t="n">
         <v>372</v>
       </c>
       <c r="B374" t="inlineStr">
@@ -33444,7 +33521,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3" t="n">
+      <c r="A375" s="6" t="n">
         <v>373</v>
       </c>
       <c r="B375" t="inlineStr">
@@ -33467,7 +33544,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3" t="n">
+      <c r="A376" s="6" t="n">
         <v>374</v>
       </c>
       <c r="B376" t="inlineStr">
@@ -33490,7 +33567,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3" t="n">
+      <c r="A377" s="6" t="n">
         <v>375</v>
       </c>
       <c r="B377" t="inlineStr">
@@ -33513,7 +33590,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3" t="n">
+      <c r="A378" s="6" t="n">
         <v>376</v>
       </c>
       <c r="B378" t="inlineStr">
@@ -33536,7 +33613,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3" t="n">
+      <c r="A379" s="6" t="n">
         <v>377</v>
       </c>
       <c r="B379" t="inlineStr">
@@ -33559,7 +33636,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3" t="n">
+      <c r="A380" s="6" t="n">
         <v>378</v>
       </c>
       <c r="B380" t="inlineStr">
@@ -33582,7 +33659,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3" t="n">
+      <c r="A381" s="6" t="n">
         <v>379</v>
       </c>
       <c r="B381" t="inlineStr">
@@ -33605,7 +33682,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3" t="n">
+      <c r="A382" s="6" t="n">
         <v>380</v>
       </c>
       <c r="B382" t="inlineStr">
@@ -33628,7 +33705,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3" t="n">
+      <c r="A383" s="6" t="n">
         <v>381</v>
       </c>
       <c r="B383" t="inlineStr">
@@ -33651,7 +33728,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3" t="n">
+      <c r="A384" s="6" t="n">
         <v>382</v>
       </c>
       <c r="B384" t="inlineStr">
@@ -33674,7 +33751,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3" t="n">
+      <c r="A385" s="6" t="n">
         <v>383</v>
       </c>
       <c r="B385" t="inlineStr">
@@ -33697,7 +33774,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3" t="n">
+      <c r="A386" s="6" t="n">
         <v>384</v>
       </c>
       <c r="B386" t="inlineStr">
@@ -33720,7 +33797,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3" t="n">
+      <c r="A387" s="6" t="n">
         <v>385</v>
       </c>
       <c r="B387" t="inlineStr">
@@ -33743,7 +33820,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3" t="n">
+      <c r="A388" s="6" t="n">
         <v>386</v>
       </c>
       <c r="B388" t="inlineStr">
@@ -33766,7 +33843,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3" t="n">
+      <c r="A389" s="6" t="n">
         <v>387</v>
       </c>
       <c r="B389" t="inlineStr">
@@ -33789,7 +33866,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3" t="n">
+      <c r="A390" s="6" t="n">
         <v>388</v>
       </c>
       <c r="B390" t="inlineStr">
@@ -33812,7 +33889,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3" t="n">
+      <c r="A391" s="6" t="n">
         <v>389</v>
       </c>
       <c r="B391" t="inlineStr">
@@ -33835,7 +33912,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3" t="n">
+      <c r="A392" s="6" t="n">
         <v>390</v>
       </c>
       <c r="B392" t="inlineStr">
@@ -33858,7 +33935,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3" t="n">
+      <c r="A393" s="6" t="n">
         <v>391</v>
       </c>
       <c r="B393" t="inlineStr">
@@ -33881,7 +33958,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3" t="n">
+      <c r="A394" s="6" t="n">
         <v>392</v>
       </c>
       <c r="B394" t="inlineStr">
@@ -33904,7 +33981,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3" t="n">
+      <c r="A395" s="6" t="n">
         <v>393</v>
       </c>
       <c r="B395" t="inlineStr">
@@ -33927,7 +34004,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3" t="n">
+      <c r="A396" s="6" t="n">
         <v>394</v>
       </c>
       <c r="B396" t="inlineStr">
@@ -33950,7 +34027,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3" t="n">
+      <c r="A397" s="6" t="n">
         <v>395</v>
       </c>
       <c r="B397" t="inlineStr">
@@ -33973,7 +34050,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3" t="n">
+      <c r="A398" s="6" t="n">
         <v>396</v>
       </c>
       <c r="B398" t="inlineStr">
@@ -33996,7 +34073,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3" t="n">
+      <c r="A399" s="6" t="n">
         <v>397</v>
       </c>
       <c r="B399" t="inlineStr">
